--- a/image/list.xlsx
+++ b/image/list.xlsx
@@ -913,43 +913,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.33984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.7578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="83.62109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.72265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="177.52734375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="177.28125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/list.xlsx
+++ b/image/list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="242">
   <si>
     <t>Path</t>
   </si>
@@ -163,7 +163,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -407,10 +407,6 @@
   </si>
   <si>
     <t>List.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Descriptive name for the list</t>
@@ -913,43 +909,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.62109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.72265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="83.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="177.28125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="177.52734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2348,17 +2344,17 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2371,7 +2367,7 @@
         <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>41</v>
@@ -2422,7 +2418,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2430,7 +2426,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2453,19 +2449,19 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2490,54 +2486,54 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2560,19 +2556,19 @@
         <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2621,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2636,15 +2632,15 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2667,13 +2663,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2724,7 +2720,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2739,15 +2735,15 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2770,19 +2766,19 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -2831,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2846,19 +2842,19 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2877,19 +2873,19 @@
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -2938,7 +2934,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2953,15 +2949,15 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2984,19 +2980,19 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3024,43 +3020,43 @@
         <v>70</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3068,7 +3064,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3091,13 +3087,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3148,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3163,7 +3159,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3171,7 +3167,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3194,16 +3190,16 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3253,7 +3249,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3262,13 +3258,13 @@
         <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AI22" t="s" s="2">
+      <c r="AJ22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -3276,7 +3272,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3299,13 +3295,13 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3356,22 +3352,22 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3379,7 +3375,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3408,7 +3404,7 @@
         <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>95</v>
@@ -3461,7 +3457,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3476,7 +3472,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -3484,11 +3480,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3510,10 +3506,10 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>95</v>
@@ -3568,7 +3564,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3591,7 +3587,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3614,19 +3610,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -3651,14 +3647,14 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3675,7 +3671,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3698,7 +3694,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3721,85 +3717,85 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P27" t="s" s="2">
+      <c r="Q27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="Q27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH27" t="s" s="2">
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -3807,7 +3803,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3830,17 +3826,17 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -3889,7 +3885,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3904,7 +3900,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -3912,7 +3908,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3935,13 +3931,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3992,7 +3988,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>47</v>
@@ -4007,7 +4003,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4015,7 +4011,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4038,19 +4034,19 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4078,43 +4074,43 @@
         <v>70</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
